--- a/Automotive/P911.xlsx
+++ b/Automotive/P911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Automotive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0DA45D-CE3D-40C4-9342-B0394BE354D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BD62B-05AB-4DEB-A9B5-35D7D3B346FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1035" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="187">
   <si>
     <t>Price</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>EV Share 7,3%, -4,3% zum Vorjahr</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1628,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1787,6 +1790,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1844,24 +1850,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1995,6 +1983,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-00EA-4E71-8485-D9547EA6FD77}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2011,6 +2004,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-00EA-4E71-8485-D9547EA6FD77}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3279,6 +3277,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1655-4B40-A56B-0D833F41BFCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3295,6 +3298,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1655-4B40-A56B-0D833F41BFCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -13478,8 +13486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13786,9 +13794,9 @@
       <c r="E17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="129"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="131"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -13798,9 +13806,9 @@
         <f>C14/(C16*100)</f>
         <v>-0.62229309360730589</v>
       </c>
-      <c r="L18" s="132"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="134"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13810,9 +13818,9 @@
         <f>C15/(C17*100)</f>
         <v>1.7370082995560685</v>
       </c>
-      <c r="L19" s="132"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="134"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="137"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -13822,9 +13830,9 @@
         <f>Model!H4/Model!G3-1</f>
         <v>-2.7633851468048309E-2</v>
       </c>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="134"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="137"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13834,9 +13842,9 @@
         <f>Model!I4/Model!H4-1</f>
         <v>2.359807155544269E-2</v>
       </c>
-      <c r="L21" s="132"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="134"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -13846,9 +13854,9 @@
         <f>Model!G12+Model!G11</f>
         <v>7473</v>
       </c>
-      <c r="L22" s="132"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="137"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13858,9 +13866,9 @@
         <f>Model!G12</f>
         <v>7374</v>
       </c>
-      <c r="L23" s="132"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="134"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13870,9 +13878,9 @@
         <f>Model!V18</f>
         <v>0.22828593389700236</v>
       </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="134"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13882,9 +13890,9 @@
         <f>Model!V19</f>
         <v>6.7310859778192594E-2</v>
       </c>
-      <c r="L25" s="132"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="134"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13894,9 +13902,9 @@
         <f>C12/C23</f>
         <v>7.7908923243829671</v>
       </c>
-      <c r="L26" s="132"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="134"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="137"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -13909,9 +13917,9 @@
       <c r="E27" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="132"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="134"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -13924,9 +13932,9 @@
       <c r="E28" t="s">
         <v>144</v>
       </c>
-      <c r="L28" s="135"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="137"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -13947,6 +13955,9 @@
       <c r="C30" s="36">
         <f>(Model!V35+Model!V34+Model!V31)/Model!V48</f>
         <v>0.58000284454558382</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -14025,8 +14036,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="20" max="20" width="11.42578125" style="149"/>
-    <col min="22" max="22" width="11.42578125" style="149"/>
     <col min="23" max="23" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -14081,19 +14090,19 @@
       <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="149" t="s">
+      <c r="T2" t="s">
         <v>58</v>
       </c>
       <c r="U2" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="149" t="s">
+      <c r="V2" t="s">
         <v>150</v>
       </c>
-      <c r="W2" s="162" t="s">
+      <c r="W2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="156" t="s">
+      <c r="X2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -14141,14 +14150,14 @@
         <f>G3-R3-Q3-P3</f>
         <v>10398</v>
       </c>
-      <c r="T3" s="150">
+      <c r="T3" s="10">
         <v>9011</v>
       </c>
       <c r="U3" s="10">
         <f>19457-T3</f>
         <v>10446</v>
       </c>
-      <c r="V3" s="150">
+      <c r="V3" s="10">
         <f>28564-U3-T3</f>
         <v>9107</v>
       </c>
@@ -14176,11 +14185,11 @@
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="150"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="128">
         <v>8770</v>
       </c>
-      <c r="V4" s="160">
+      <c r="V4" s="42">
         <v>10070</v>
       </c>
     </row>
@@ -14228,14 +14237,14 @@
         <f>G5-R5-Q5-P5</f>
         <v>7381</v>
       </c>
-      <c r="T5" s="150">
+      <c r="T5" s="10">
         <v>6694</v>
       </c>
       <c r="U5" s="10">
         <f>14251-T5</f>
         <v>7557</v>
       </c>
-      <c r="V5" s="150">
+      <c r="V5" s="10">
         <f>21279-U5-T5</f>
         <v>7028</v>
       </c>
@@ -14284,14 +14293,14 @@
         <f>G6-R6-Q6-P6</f>
         <v>859</v>
       </c>
-      <c r="T6" s="149">
+      <c r="T6">
         <v>657</v>
       </c>
       <c r="U6">
         <f>1379-T6</f>
         <v>722</v>
       </c>
-      <c r="V6" s="149">
+      <c r="V6">
         <f>2148-U6-T6</f>
         <v>769</v>
       </c>
@@ -14340,14 +14349,14 @@
         <f>G7-R7-Q7-P7</f>
         <v>408</v>
       </c>
-      <c r="T7" s="149">
+      <c r="T7">
         <v>462</v>
       </c>
       <c r="U7">
         <f>952-T7</f>
         <v>490</v>
       </c>
-      <c r="V7" s="149">
+      <c r="V7">
         <f>1368-U7-T7</f>
         <v>416</v>
       </c>
@@ -14398,14 +14407,14 @@
         <f>G8-R8-Q8-P8</f>
         <v>-33</v>
       </c>
-      <c r="T8" s="149">
+      <c r="T8">
         <v>-84</v>
       </c>
       <c r="U8">
         <f>-187-T8</f>
         <v>-103</v>
       </c>
-      <c r="V8" s="149">
+      <c r="V8">
         <f>-267-U8-T8</f>
         <v>-80</v>
       </c>
@@ -14476,7 +14485,7 @@
         <f t="shared" si="1"/>
         <v>1783</v>
       </c>
-      <c r="T9" s="148">
+      <c r="T9" s="11">
         <f t="shared" si="1"/>
         <v>1282</v>
       </c>
@@ -14484,7 +14493,7 @@
         <f>U3-SUM(U5:U8)</f>
         <v>1780</v>
       </c>
-      <c r="V9" s="148">
+      <c r="V9" s="11">
         <f>V3-SUM(V5:V8)</f>
         <v>974</v>
       </c>
@@ -14532,14 +14541,14 @@
         <f>G10-R10-Q10-P10</f>
         <v>-3</v>
       </c>
-      <c r="T10" s="149">
+      <c r="T10">
         <v>50</v>
       </c>
       <c r="U10">
         <f>33-T10</f>
         <v>-17</v>
       </c>
-      <c r="V10" s="149">
+      <c r="V10">
         <f>-49-U10-T10</f>
         <v>-82</v>
       </c>
@@ -14655,7 +14664,7 @@
         <f t="shared" si="3"/>
         <v>1730</v>
       </c>
-      <c r="T12" s="148">
+      <c r="T12" s="11">
         <f t="shared" si="3"/>
         <v>1332</v>
       </c>
@@ -14663,7 +14672,7 @@
         <f t="shared" si="3"/>
         <v>1763</v>
       </c>
-      <c r="V12" s="148">
+      <c r="V12" s="11">
         <f t="shared" si="3"/>
         <v>892</v>
       </c>
@@ -14716,14 +14725,14 @@
         <f>G13-R13-Q13-P13</f>
         <v>513</v>
       </c>
-      <c r="T13" s="149">
+      <c r="T13">
         <v>406</v>
       </c>
       <c r="U13">
         <f>942-T13</f>
         <v>536</v>
       </c>
-      <c r="V13" s="149">
+      <c r="V13">
         <f>1221-U13-T13</f>
         <v>279</v>
       </c>
@@ -14786,7 +14795,7 @@
         <f t="shared" si="4"/>
         <v>1217</v>
       </c>
-      <c r="T14" s="148">
+      <c r="T14" s="11">
         <f t="shared" si="4"/>
         <v>926</v>
       </c>
@@ -14794,7 +14803,7 @@
         <f t="shared" si="4"/>
         <v>1227</v>
       </c>
-      <c r="V14" s="148">
+      <c r="V14" s="11">
         <f t="shared" si="4"/>
         <v>613</v>
       </c>
@@ -14852,13 +14861,13 @@
         <f>S14/S16</f>
         <v>908.20895522388082</v>
       </c>
-      <c r="T15" s="150">
+      <c r="T15" s="10">
         <v>909</v>
       </c>
-      <c r="U15" s="150">
+      <c r="U15" s="10">
         <v>909</v>
       </c>
-      <c r="V15" s="150">
+      <c r="V15" s="10">
         <v>909</v>
       </c>
       <c r="W15" s="15">
@@ -14918,15 +14927,15 @@
         <f>G16-R16-Q16-P16</f>
         <v>1.3399999999999996</v>
       </c>
-      <c r="T16" s="151">
+      <c r="T16" s="49">
         <f>T14/T15</f>
         <v>1.0187018701870187</v>
       </c>
-      <c r="U16" s="151">
+      <c r="U16" s="49">
         <f>U14/U15</f>
         <v>1.3498349834983498</v>
       </c>
-      <c r="V16" s="151">
+      <c r="V16" s="49">
         <f>V14/V15</f>
         <v>0.67436743674367439</v>
       </c>
@@ -14958,11 +14967,11 @@
       <c r="Q17" s="50"/>
       <c r="R17" s="50"/>
       <c r="S17" s="49"/>
-      <c r="T17" s="151"/>
+      <c r="T17" s="49"/>
       <c r="U17" s="49">
         <v>0.94</v>
       </c>
-      <c r="V17" s="154">
+      <c r="V17" s="1">
         <v>1.27</v>
       </c>
       <c r="W17" s="16">
@@ -15108,15 +15117,15 @@
         <f t="shared" si="10"/>
         <v>0.11704173879592229</v>
       </c>
-      <c r="T19" s="152">
+      <c r="T19" s="4">
         <f t="shared" si="10"/>
         <v>0.10276328931306182</v>
       </c>
-      <c r="U19" s="152">
+      <c r="U19" s="4">
         <f t="shared" ref="U19:V19" si="11">U14/U3</f>
         <v>0.11746122917863297</v>
       </c>
-      <c r="V19" s="152">
+      <c r="V19" s="4">
         <f t="shared" si="11"/>
         <v>6.7310859778192594E-2</v>
       </c>
@@ -15177,15 +15186,15 @@
         <f t="shared" si="13"/>
         <v>0.29653179190751444</v>
       </c>
-      <c r="T20" s="152">
+      <c r="T20" s="4">
         <f>T13/T12</f>
         <v>0.30480480480480482</v>
       </c>
-      <c r="U20" s="152">
+      <c r="U20" s="4">
         <f t="shared" ref="U20:V20" si="14">U13/U12</f>
         <v>0.30402722631877482</v>
       </c>
-      <c r="V20" s="152">
+      <c r="V20" s="4">
         <f t="shared" si="14"/>
         <v>0.31278026905829598</v>
       </c>
@@ -15255,19 +15264,19 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="153">
+      <c r="T21" s="129">
         <f t="shared" si="16"/>
         <v>-0.10755670000990392</v>
       </c>
-      <c r="U21" s="153">
+      <c r="U21" s="129">
         <f t="shared" ref="U21" si="17">U3/Q3-1</f>
         <v>1.0838010450938684E-2</v>
       </c>
-      <c r="V21" s="161">
+      <c r="V21" s="4">
         <f t="shared" ref="V21:W21" si="18">V3/R3-1</f>
         <v>-6.1230800948355868E-2</v>
       </c>
-      <c r="W21" s="158">
+      <c r="W21" s="7">
         <f t="shared" si="18"/>
         <v>-1</v>
       </c>
@@ -15330,15 +15339,15 @@
         <f t="shared" si="19"/>
         <v>8.2612040777072515E-2</v>
       </c>
-      <c r="T22" s="152">
+      <c r="T22" s="4">
         <f t="shared" si="19"/>
         <v>7.2910886694040611E-2</v>
       </c>
-      <c r="U22" s="152">
+      <c r="U22" s="4">
         <f t="shared" ref="U22:V22" si="20">U6/U3</f>
         <v>6.9117365498755509E-2</v>
       </c>
-      <c r="V22" s="152">
+      <c r="V22" s="4">
         <f t="shared" si="20"/>
         <v>8.4440540243768528E-2</v>
       </c>
@@ -15405,15 +15414,15 @@
         <f t="shared" si="22"/>
         <v>3.9238315060588572E-2</v>
       </c>
-      <c r="T23" s="152">
+      <c r="T23" s="4">
         <f t="shared" si="22"/>
         <v>5.1270669182110755E-2</v>
       </c>
-      <c r="U23" s="152">
+      <c r="U23" s="4">
         <f t="shared" ref="U23:V23" si="23">U7/U3</f>
         <v>4.6907907332950409E-2</v>
       </c>
-      <c r="V23" s="152">
+      <c r="V23" s="4">
         <f t="shared" si="23"/>
         <v>4.5679147908202482E-2</v>
       </c>
@@ -15441,9 +15450,9 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="152"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
@@ -15507,19 +15516,19 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T25" s="153">
+      <c r="T25" s="129">
         <f t="shared" si="25"/>
         <v>-0.341862117981521</v>
       </c>
-      <c r="U25" s="153">
+      <c r="U25" s="129">
         <f t="shared" ref="U25" si="26">U14/Q14-1</f>
         <v>-9.7794117647058809E-2</v>
       </c>
-      <c r="V25" s="161">
+      <c r="V25" s="4">
         <f t="shared" ref="V25:W25" si="27">V14/R14-1</f>
         <v>-0.476962457337884</v>
       </c>
-      <c r="W25" s="158">
+      <c r="W25" s="7">
         <f t="shared" si="27"/>
         <v>-1</v>
       </c>
@@ -15528,19 +15537,19 @@
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="148">
+      <c r="C29" s="11">
         <f t="shared" ref="C29:I29" si="28">C35+C34-C44-C50</f>
         <v>0</v>
       </c>
-      <c r="D29" s="148">
+      <c r="D29" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="E29" s="148">
+      <c r="E29" s="11">
         <f t="shared" si="28"/>
         <v>-4059</v>
       </c>
-      <c r="F29" s="148">
+      <c r="F29" s="11">
         <f>F35+F34-F44-F50</f>
         <v>-4712</v>
       </c>
@@ -15548,11 +15557,11 @@
         <f t="shared" si="28"/>
         <v>-2771</v>
       </c>
-      <c r="H29" s="148">
+      <c r="H29" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="I29" s="148">
+      <c r="I29" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -15568,35 +15577,35 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O29" s="148">
+      <c r="O29" s="11">
         <f t="shared" ref="O29:R29" si="30">O35+O34-O44-O50</f>
         <v>-4712</v>
       </c>
-      <c r="P29" s="148">
+      <c r="P29" s="11">
         <f t="shared" si="30"/>
         <v>-5298</v>
       </c>
-      <c r="Q29" s="148">
+      <c r="Q29" s="11">
         <f t="shared" si="30"/>
         <v>-6177</v>
       </c>
-      <c r="R29" s="148">
+      <c r="R29" s="11">
         <f t="shared" si="30"/>
         <v>-6573</v>
       </c>
-      <c r="S29" s="148">
+      <c r="S29" s="11">
         <f>S35+S34-S44-S50</f>
         <v>-2771</v>
       </c>
-      <c r="T29" s="148">
+      <c r="T29" s="11">
         <f t="shared" ref="T29:X29" si="31">T35+T34-T44-T50</f>
         <v>-2671</v>
       </c>
-      <c r="U29" s="148">
+      <c r="U29" s="11">
         <f t="shared" si="31"/>
         <v>-4112</v>
       </c>
-      <c r="V29" s="148">
+      <c r="V29" s="11">
         <f t="shared" si="31"/>
         <v>-4004</v>
       </c>
@@ -15604,7 +15613,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="X29" s="148">
+      <c r="X29" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -15628,7 +15637,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10">
-        <f>F30</f>
+        <f t="shared" ref="O30:O36" si="32">F30</f>
         <v>5504</v>
       </c>
       <c r="P30" s="10">
@@ -15641,16 +15650,16 @@
         <v>6108</v>
       </c>
       <c r="S30" s="10">
-        <f>G30</f>
+        <f t="shared" ref="S30:S36" si="33">G30</f>
         <v>5947</v>
       </c>
-      <c r="T30" s="150">
+      <c r="T30" s="10">
         <v>6531</v>
       </c>
-      <c r="U30" s="159">
+      <c r="U30" s="10">
         <v>6791</v>
       </c>
-      <c r="V30" s="159">
+      <c r="V30" s="10">
         <v>6887</v>
       </c>
     </row>
@@ -15673,7 +15682,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10">
-        <f>F31</f>
+        <f t="shared" si="32"/>
         <v>1538</v>
       </c>
       <c r="P31" s="10">
@@ -15686,16 +15695,16 @@
         <v>1608</v>
       </c>
       <c r="S31" s="10">
-        <f>G31</f>
+        <f t="shared" si="33"/>
         <v>1669</v>
       </c>
-      <c r="T31" s="150">
+      <c r="T31" s="10">
         <v>1678</v>
       </c>
-      <c r="U31" s="159">
+      <c r="U31" s="10">
         <v>1701</v>
       </c>
-      <c r="V31" s="159">
+      <c r="V31" s="10">
         <v>1704</v>
       </c>
     </row>
@@ -15718,7 +15727,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10">
-        <f>F32</f>
+        <f t="shared" si="32"/>
         <v>7480</v>
       </c>
       <c r="P32" s="10">
@@ -15731,16 +15740,16 @@
         <v>8192</v>
       </c>
       <c r="S32" s="10">
-        <f>G32</f>
+        <f t="shared" si="33"/>
         <v>4537</v>
       </c>
-      <c r="T32" s="150">
+      <c r="T32" s="10">
         <v>4168</v>
       </c>
-      <c r="U32" s="159">
+      <c r="U32" s="10">
         <v>4344</v>
       </c>
-      <c r="V32" s="159">
+      <c r="V32" s="10">
         <v>4408</v>
       </c>
     </row>
@@ -15763,7 +15772,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10">
-        <f>F33</f>
+        <f t="shared" si="32"/>
         <v>87</v>
       </c>
       <c r="P33" s="10">
@@ -15776,16 +15785,16 @@
         <v>122</v>
       </c>
       <c r="S33" s="10">
-        <f>G33</f>
+        <f t="shared" si="33"/>
         <v>235</v>
       </c>
-      <c r="T33" s="150">
+      <c r="T33" s="10">
         <v>350</v>
       </c>
-      <c r="U33" s="159">
+      <c r="U33" s="10">
         <v>292</v>
       </c>
-      <c r="V33" s="159">
+      <c r="V33" s="10">
         <v>337</v>
       </c>
     </row>
@@ -15808,7 +15817,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10">
-        <f>F34</f>
+        <f t="shared" si="32"/>
         <v>1795</v>
       </c>
       <c r="P34" s="10">
@@ -15821,16 +15830,16 @@
         <v>1777</v>
       </c>
       <c r="S34" s="10">
-        <f>G34</f>
+        <f t="shared" si="33"/>
         <v>1826</v>
       </c>
-      <c r="T34" s="150">
+      <c r="T34" s="10">
         <v>1682</v>
       </c>
-      <c r="U34" s="159">
+      <c r="U34" s="10">
         <v>1895</v>
       </c>
-      <c r="V34" s="159">
+      <c r="V34" s="10">
         <v>1905</v>
       </c>
     </row>
@@ -15853,7 +15862,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10">
-        <f>F35</f>
+        <f t="shared" si="32"/>
         <v>3719</v>
       </c>
       <c r="P35" s="10">
@@ -15866,16 +15875,16 @@
         <v>2093</v>
       </c>
       <c r="S35" s="10">
-        <f>G35</f>
+        <f t="shared" si="33"/>
         <v>5820</v>
       </c>
-      <c r="T35" s="150">
+      <c r="T35" s="10">
         <v>6164</v>
       </c>
-      <c r="U35" s="159">
+      <c r="U35" s="10">
         <v>4590</v>
       </c>
-      <c r="V35" s="159">
+      <c r="V35" s="10">
         <v>4547</v>
       </c>
     </row>
@@ -15898,7 +15907,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10">
-        <f>F36</f>
+        <f t="shared" si="32"/>
         <v>31</v>
       </c>
       <c r="P36" s="10">
@@ -15911,16 +15920,16 @@
         <v>13</v>
       </c>
       <c r="S36" s="10">
-        <f>G36</f>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
-      <c r="T36" s="150">
+      <c r="T36" s="10">
         <v>6</v>
       </c>
-      <c r="U36" s="159">
+      <c r="U36" s="10">
         <v>6</v>
       </c>
-      <c r="V36" s="159">
+      <c r="V36" s="10">
         <v>6</v>
       </c>
     </row>
@@ -15929,11 +15938,11 @@
         <v>56</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" ref="C37:D37" si="32">SUM(C30:C36)</f>
+        <f t="shared" ref="C37:D37" si="34">SUM(C30:C36)</f>
         <v>0</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="E37" s="11">
@@ -15941,63 +15950,63 @@
         <v>18552</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" ref="F37:G37" si="33">SUM(F30:F36)</f>
+        <f t="shared" ref="F37:G37" si="35">SUM(F30:F36)</f>
         <v>20154</v>
       </c>
       <c r="G37" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>20040</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" ref="L37:X37" si="34">SUM(L30:L36)</f>
+        <f t="shared" ref="L37:X37" si="36">SUM(L30:L36)</f>
         <v>0</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O37" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>20154</v>
       </c>
       <c r="P37" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>18069</v>
       </c>
       <c r="Q37" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>19825</v>
       </c>
       <c r="R37" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>19913</v>
       </c>
       <c r="S37" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>20040</v>
       </c>
-      <c r="T37" s="148">
-        <f t="shared" si="34"/>
+      <c r="T37" s="11">
+        <f t="shared" si="36"/>
         <v>20579</v>
       </c>
-      <c r="U37" s="148">
-        <f t="shared" si="34"/>
+      <c r="U37" s="11">
+        <f t="shared" si="36"/>
         <v>19619</v>
       </c>
-      <c r="V37" s="148">
-        <f t="shared" si="34"/>
+      <c r="V37" s="11">
+        <f t="shared" si="36"/>
         <v>19794</v>
       </c>
       <c r="W37" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="X37" s="148">
-        <f t="shared" si="34"/>
+      <c r="X37" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -16020,7 +16029,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10">
-        <f t="shared" ref="O38:O42" si="35">F38</f>
+        <f t="shared" ref="O38:O42" si="37">F38</f>
         <v>7473</v>
       </c>
       <c r="P38" s="10">
@@ -16033,16 +16042,16 @@
         <v>8359</v>
       </c>
       <c r="S38" s="10">
-        <f t="shared" ref="S38:S42" si="36">G38</f>
+        <f t="shared" ref="S38:S42" si="38">G38</f>
         <v>8554</v>
       </c>
-      <c r="T38" s="150">
+      <c r="T38" s="10">
         <v>9041</v>
       </c>
-      <c r="U38" s="159">
+      <c r="U38" s="10">
         <v>9110</v>
       </c>
-      <c r="V38" s="159">
+      <c r="V38" s="10">
         <v>9178</v>
       </c>
     </row>
@@ -16065,7 +16074,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8924</v>
       </c>
       <c r="P39" s="10">
@@ -16078,16 +16087,16 @@
         <v>9179</v>
       </c>
       <c r="S39" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9394</v>
       </c>
-      <c r="T39" s="150">
+      <c r="T39" s="10">
         <v>9454</v>
       </c>
-      <c r="U39" s="159">
+      <c r="U39" s="10">
         <v>9570</v>
       </c>
-      <c r="V39" s="159">
+      <c r="V39" s="10">
         <v>9793</v>
       </c>
     </row>
@@ -16110,7 +16119,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3854</v>
       </c>
       <c r="P40" s="10">
@@ -16123,16 +16132,16 @@
         <v>4253</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4190</v>
       </c>
-      <c r="T40" s="150">
+      <c r="T40" s="10">
         <v>4260</v>
       </c>
-      <c r="U40" s="159">
+      <c r="U40" s="10">
         <v>4491</v>
       </c>
-      <c r="V40" s="159">
+      <c r="V40" s="10">
         <v>4650</v>
       </c>
     </row>
@@ -16155,7 +16164,7 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4382</v>
       </c>
       <c r="P41" s="10">
@@ -16168,16 +16177,16 @@
         <v>4701</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4676</v>
       </c>
-      <c r="T41" s="150">
+      <c r="T41" s="10">
         <v>4728</v>
       </c>
-      <c r="U41" s="159">
+      <c r="U41" s="10">
         <v>4744</v>
       </c>
-      <c r="V41" s="159">
+      <c r="V41" s="10">
         <v>4755</v>
       </c>
     </row>
@@ -16200,7 +16209,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2855</v>
       </c>
       <c r="P42" s="10">
@@ -16213,16 +16222,16 @@
         <v>3412</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3592</v>
       </c>
-      <c r="T42" s="150">
+      <c r="T42" s="10">
         <v>3901</v>
       </c>
-      <c r="U42" s="159">
+      <c r="U42" s="10">
         <v>3934</v>
       </c>
-      <c r="V42" s="159">
+      <c r="V42" s="10">
         <v>3920</v>
       </c>
     </row>
@@ -16251,55 +16260,55 @@
         <v>50446</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" ref="L43:T43" si="37">SUM(L37:L42)</f>
+        <f t="shared" ref="L43:T43" si="39">SUM(L37:L42)</f>
         <v>0</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>47642</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>46090</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>49125</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>49817</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50446</v>
       </c>
-      <c r="T43" s="148">
-        <f t="shared" si="37"/>
+      <c r="T43" s="11">
+        <f t="shared" si="39"/>
         <v>51963</v>
       </c>
-      <c r="U43" s="148">
-        <f t="shared" ref="U43" si="38">SUM(U37:U42)</f>
+      <c r="U43" s="11">
+        <f t="shared" ref="U43" si="40">SUM(U37:U42)</f>
         <v>51468</v>
       </c>
-      <c r="V43" s="148">
-        <f t="shared" ref="V43" si="39">SUM(V37:V42)</f>
+      <c r="V43" s="11">
+        <f t="shared" ref="V43" si="41">SUM(V37:V42)</f>
         <v>52090</v>
       </c>
       <c r="W43" s="14">
-        <f t="shared" ref="W43" si="40">SUM(W37:W42)</f>
+        <f t="shared" ref="W43" si="42">SUM(W37:W42)</f>
         <v>0</v>
       </c>
-      <c r="X43" s="148">
-        <f t="shared" ref="X43" si="41">SUM(X37:X42)</f>
+      <c r="X43" s="11">
+        <f t="shared" ref="X43" si="43">SUM(X37:X42)</f>
         <v>0</v>
       </c>
     </row>
@@ -16322,7 +16331,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10">
-        <f t="shared" ref="O44:O47" si="42">F44</f>
+        <f t="shared" ref="O44:O47" si="44">F44</f>
         <v>3464</v>
       </c>
       <c r="P44" s="10">
@@ -16335,16 +16344,16 @@
         <v>3681</v>
       </c>
       <c r="S44" s="10">
-        <f t="shared" ref="S44:S47" si="43">G44</f>
+        <f t="shared" ref="S44:S47" si="45">G44</f>
         <v>3880</v>
       </c>
-      <c r="T44" s="150">
+      <c r="T44" s="10">
         <v>3971</v>
       </c>
-      <c r="U44" s="159">
+      <c r="U44" s="10">
         <v>4072</v>
       </c>
-      <c r="V44" s="159">
+      <c r="V44" s="10">
         <v>3805</v>
       </c>
     </row>
@@ -16367,7 +16376,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2899</v>
       </c>
       <c r="P45" s="10">
@@ -16380,16 +16389,16 @@
         <v>3922</v>
       </c>
       <c r="S45" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3490</v>
       </c>
-      <c r="T45" s="150">
+      <c r="T45" s="10">
         <v>3937</v>
       </c>
-      <c r="U45" s="159">
+      <c r="U45" s="10">
         <v>3883</v>
       </c>
-      <c r="V45" s="159">
+      <c r="V45" s="10">
         <v>3943</v>
       </c>
     </row>
@@ -16412,7 +16421,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10204</v>
       </c>
       <c r="P46" s="10">
@@ -16425,16 +16434,16 @@
         <v>6564</v>
       </c>
       <c r="S46" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>6192</v>
       </c>
-      <c r="T46" s="150">
+      <c r="T46" s="10">
         <v>6170</v>
       </c>
-      <c r="U46" s="159">
+      <c r="U46" s="10">
         <v>6426</v>
       </c>
-      <c r="V46" s="159">
+      <c r="V46" s="10">
         <v>6309</v>
       </c>
     </row>
@@ -16457,7 +16466,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>12</v>
       </c>
       <c r="P47" s="10">
@@ -16470,16 +16479,16 @@
         <v>5</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
-      <c r="T47" s="150">
+      <c r="T47" s="10">
         <v>5</v>
       </c>
-      <c r="U47" s="159">
+      <c r="U47" s="10">
         <v>6</v>
       </c>
-      <c r="V47" s="159">
+      <c r="V47" s="10">
         <v>5</v>
       </c>
     </row>
@@ -16508,55 +16517,55 @@
         <v>13567</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" ref="L48:T48" si="44">SUM(L44:L47)</f>
+        <f t="shared" ref="L48:T48" si="46">SUM(L44:L47)</f>
         <v>0</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N48" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O48" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>16579</v>
       </c>
       <c r="P48" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>13308</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>14819</v>
       </c>
       <c r="R48" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>14172</v>
       </c>
       <c r="S48" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>13567</v>
       </c>
-      <c r="T48" s="148">
-        <f t="shared" si="44"/>
+      <c r="T48" s="11">
+        <f t="shared" si="46"/>
         <v>14083</v>
       </c>
-      <c r="U48" s="148">
-        <f t="shared" ref="U48" si="45">SUM(U44:U47)</f>
+      <c r="U48" s="11">
+        <f t="shared" ref="U48" si="47">SUM(U44:U47)</f>
         <v>14387</v>
       </c>
-      <c r="V48" s="148">
-        <f t="shared" ref="V48" si="46">SUM(V44:V47)</f>
+      <c r="V48" s="11">
+        <f t="shared" ref="V48" si="48">SUM(V44:V47)</f>
         <v>14062</v>
       </c>
       <c r="W48" s="14">
-        <f t="shared" ref="W48" si="47">SUM(W44:W47)</f>
+        <f t="shared" ref="W48" si="49">SUM(W44:W47)</f>
         <v>0</v>
       </c>
-      <c r="X48" s="148">
-        <f t="shared" ref="X48" si="48">SUM(X44:X47)</f>
+      <c r="X48" s="11">
+        <f t="shared" ref="X48" si="50">SUM(X44:X47)</f>
         <v>0</v>
       </c>
     </row>
@@ -16579,7 +16588,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10">
-        <f t="shared" ref="O49:O51" si="49">F49</f>
+        <f t="shared" ref="O49:O51" si="51">F49</f>
         <v>3668</v>
       </c>
       <c r="P49" s="10">
@@ -16592,16 +16601,16 @@
         <v>3482</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" ref="S49:S51" si="50">G49</f>
+        <f t="shared" ref="S49:S51" si="52">G49</f>
         <v>4315</v>
       </c>
-      <c r="T49" s="150">
+      <c r="T49" s="10">
         <v>4287</v>
       </c>
-      <c r="U49" s="159">
+      <c r="U49" s="10">
         <v>4187</v>
       </c>
-      <c r="V49" s="159">
+      <c r="V49" s="10">
         <v>4348</v>
       </c>
     </row>
@@ -16624,7 +16633,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>6762</v>
       </c>
       <c r="P50" s="10">
@@ -16637,16 +16646,16 @@
         <v>6762</v>
       </c>
       <c r="S50" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>6537</v>
       </c>
-      <c r="T50" s="150">
+      <c r="T50" s="10">
         <v>6546</v>
       </c>
-      <c r="U50" s="159">
+      <c r="U50" s="10">
         <v>6525</v>
       </c>
-      <c r="V50" s="159">
+      <c r="V50" s="10">
         <v>6651</v>
       </c>
     </row>
@@ -16669,7 +16678,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4633</v>
       </c>
       <c r="P51" s="10">
@@ -16682,16 +16691,16 @@
         <v>4633</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>4360</v>
       </c>
-      <c r="T51" s="150">
+      <c r="T51" s="10">
         <v>4519</v>
       </c>
-      <c r="U51" s="159">
+      <c r="U51" s="10">
         <v>4596</v>
       </c>
-      <c r="V51" s="159">
+      <c r="V51" s="10">
         <v>3674</v>
       </c>
     </row>
@@ -16720,55 +16729,55 @@
         <v>28779</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" ref="L52:T52" si="51">SUM(L48:L51)</f>
+        <f t="shared" ref="L52:T52" si="53">SUM(L48:L51)</f>
         <v>0</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>31642</v>
       </c>
       <c r="P52" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>27490</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>29692</v>
       </c>
       <c r="R52" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>29049</v>
       </c>
       <c r="S52" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>28779</v>
       </c>
-      <c r="T52" s="148">
-        <f t="shared" si="51"/>
+      <c r="T52" s="11">
+        <f t="shared" si="53"/>
         <v>29435</v>
       </c>
-      <c r="U52" s="148">
-        <f t="shared" ref="U52" si="52">SUM(U48:U51)</f>
+      <c r="U52" s="11">
+        <f t="shared" ref="U52" si="54">SUM(U48:U51)</f>
         <v>29695</v>
       </c>
-      <c r="V52" s="148">
-        <f t="shared" ref="V52" si="53">SUM(V48:V51)</f>
+      <c r="V52" s="11">
+        <f t="shared" ref="V52" si="55">SUM(V48:V51)</f>
         <v>28735</v>
       </c>
       <c r="W52" s="14">
-        <f t="shared" ref="W52" si="54">SUM(W48:W51)</f>
+        <f t="shared" ref="W52" si="56">SUM(W48:W51)</f>
         <v>0</v>
       </c>
-      <c r="X52" s="148">
-        <f t="shared" ref="X52" si="55">SUM(X48:X51)</f>
+      <c r="X52" s="11">
+        <f t="shared" ref="X52" si="57">SUM(X48:X51)</f>
         <v>0</v>
       </c>
     </row>
@@ -16797,55 +16806,55 @@
         <v>21667</v>
       </c>
       <c r="L53" s="10">
-        <f t="shared" ref="L53:T53" si="56">L43-L52</f>
+        <f t="shared" ref="L53:T53" si="58">L43-L52</f>
         <v>0</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O53" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>16000</v>
       </c>
       <c r="P53" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>18600</v>
       </c>
       <c r="Q53" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>19433</v>
       </c>
       <c r="R53" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>20768</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>21667</v>
       </c>
-      <c r="T53" s="150">
-        <f t="shared" si="56"/>
+      <c r="T53" s="10">
+        <f t="shared" si="58"/>
         <v>22528</v>
       </c>
-      <c r="U53" s="150">
-        <f t="shared" ref="U53" si="57">U43-U52</f>
+      <c r="U53" s="10">
+        <f t="shared" ref="U53" si="59">U43-U52</f>
         <v>21773</v>
       </c>
-      <c r="V53" s="150">
-        <f t="shared" ref="V53" si="58">V43-V52</f>
+      <c r="V53" s="10">
+        <f t="shared" ref="V53" si="60">V43-V52</f>
         <v>23355</v>
       </c>
       <c r="W53" s="15">
-        <f t="shared" ref="W53" si="59">W43-W52</f>
+        <f t="shared" ref="W53" si="61">W43-W52</f>
         <v>0</v>
       </c>
-      <c r="X53" s="150">
-        <f t="shared" ref="X53" si="60">X43-X52</f>
+      <c r="X53" s="10">
+        <f t="shared" ref="X53" si="62">X43-X52</f>
         <v>0</v>
       </c>
     </row>
@@ -16858,20 +16867,14 @@
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="53"/>
-      <c r="T55" s="154"/>
-      <c r="V55" s="154"/>
       <c r="W55" s="16"/>
     </row>
     <row r="73" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G73" s="41"/>
-      <c r="T73" s="155"/>
-      <c r="V73" s="155"/>
       <c r="W73" s="41"/>
     </row>
     <row r="74" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G74" s="16"/>
-      <c r="T74" s="154"/>
-      <c r="V74" s="154"/>
       <c r="W74" s="16"/>
     </row>
   </sheetData>
@@ -17412,7 +17415,7 @@
         <f>S3/O3-1</f>
         <v>7.507609063239773E-2</v>
       </c>
-      <c r="T10" s="157">
+      <c r="T10" s="130">
         <f>T3/P3-1</f>
         <v>-0.21686590436590436</v>
       </c>
@@ -17451,15 +17454,15 @@
         <v>-5.8114657468453901E-2</v>
       </c>
       <c r="R11" s="3">
-        <f>R5/N5-1</f>
+        <f t="shared" ref="R11:T12" si="6">R5/N5-1</f>
         <v>-0.23225281156175259</v>
       </c>
       <c r="S11" s="3">
-        <f>S5/O5-1</f>
+        <f t="shared" si="6"/>
         <v>9.8043614825450875E-2</v>
       </c>
       <c r="T11" s="3">
-        <f>T5/P5-1</f>
+        <f t="shared" si="6"/>
         <v>-2.8248337028824788E-2</v>
       </c>
       <c r="U11" s="10"/>
@@ -17481,31 +17484,31 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="3">
-        <f t="shared" ref="N12:Q12" si="6">N6/J6-1</f>
+        <f t="shared" ref="N12:Q12" si="7">N6/J6-1</f>
         <v>0.20808594854396389</v>
       </c>
       <c r="O12" s="3">
+        <f t="shared" si="7"/>
+        <v>-2.300400069577313E-2</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.39768559729392916</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.24408646003262646</v>
+      </c>
+      <c r="R12" s="130">
         <f t="shared" si="6"/>
-        <v>-2.300400069577313E-2</v>
-      </c>
-      <c r="P12" s="3">
+        <v>-0.23519775333489357</v>
+      </c>
+      <c r="S12" s="130">
         <f t="shared" si="6"/>
-        <v>-0.39768559729392916</v>
-      </c>
-      <c r="Q12" s="3">
+        <v>-0.41198201807094847</v>
+      </c>
+      <c r="T12" s="130">
         <f t="shared" si="6"/>
-        <v>-0.24408646003262646</v>
-      </c>
-      <c r="R12" s="157">
-        <f>R6/N6-1</f>
-        <v>-0.23519775333489357</v>
-      </c>
-      <c r="S12" s="157">
-        <f>S6/O6-1</f>
-        <v>-0.41198201807094847</v>
-      </c>
-      <c r="T12" s="157">
-        <f>T6/P6-1</f>
         <v>-0.18840151336013244</v>
       </c>
       <c r="U12" s="10"/>
@@ -17645,7 +17648,7 @@
         <v>5423</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" ref="Q15:Q19" si="7">E15-P15-O15-N15</f>
+        <f t="shared" ref="Q15:Q19" si="8">E15-P15-O15-N15</f>
         <v>4060</v>
       </c>
       <c r="R15" s="10">
@@ -17660,7 +17663,7 @@
         <v>6162</v>
       </c>
       <c r="U15" s="10">
-        <f t="shared" ref="U15:U19" si="8">F15-T15-S15-R15</f>
+        <f t="shared" ref="U15:U19" si="9">F15-T15-S15-R15</f>
         <v>5622</v>
       </c>
     </row>
@@ -17711,7 +17714,7 @@
         <v>20599</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19001</v>
       </c>
       <c r="R16" s="10">
@@ -17726,7 +17729,7 @@
         <v>15833</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27795</v>
       </c>
     </row>
@@ -17777,7 +17780,7 @@
         <v>17573</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23096</v>
       </c>
       <c r="R17" s="10">
@@ -17792,7 +17795,7 @@
         <v>30802</v>
       </c>
       <c r="U17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25203</v>
       </c>
     </row>
@@ -17843,7 +17846,7 @@
         <v>9214</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7241</v>
       </c>
       <c r="R18" s="10">
@@ -17858,7 +17861,7 @@
         <v>8251</v>
       </c>
       <c r="U18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8081</v>
       </c>
     </row>
@@ -17909,7 +17912,7 @@
         <v>9894</v>
       </c>
       <c r="Q19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12744</v>
       </c>
       <c r="R19" s="10">
@@ -17924,7 +17927,7 @@
         <v>5204</v>
       </c>
       <c r="U19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6794</v>
       </c>
     </row>
@@ -17934,11 +17937,11 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:D20" si="9">SUM(C14:C19)</f>
+        <f t="shared" ref="C20:D20" si="10">SUM(C14:C19)</f>
         <v>301915</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>309884</v>
       </c>
       <c r="E20" s="11">
@@ -17960,47 +17963,47 @@
         <v>68426</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" ref="K20:U20" si="10">SUM(K14:K19)</f>
+        <f t="shared" ref="K20:U20" si="11">SUM(K14:K19)</f>
         <v>77434</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75652</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>88288</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80767</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86587</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75368</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>77499</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>77640</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>70602</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>77784</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>84692</v>
       </c>
     </row>
@@ -18021,19 +18024,19 @@
         <v>1.5853707175048859E-2</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" ref="N22:Q22" si="11">N14/J14-1</f>
+        <f t="shared" ref="N22:Q22" si="12">N14/J14-1</f>
         <v>0.18612629998927854</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2255675807632842</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40800444691495286</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16017979364592905</v>
       </c>
       <c r="R22" s="3">
@@ -18044,11 +18047,11 @@
         <f>S14/O14-1</f>
         <v>1.7196733284642551E-2</v>
       </c>
-      <c r="T22" s="157">
+      <c r="T22" s="130">
         <f>T14/P14-1</f>
         <v>-8.9459139360442141E-2</v>
       </c>
-      <c r="U22" s="157">
+      <c r="U22" s="130">
         <f>U14/Q14-1</f>
         <v>-1.4088227524874486E-2</v>
       </c>
@@ -18074,15 +18077,15 @@
         <v>0.26524439209807804</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" ref="N23:Q23" si="12">((O16+O17)/(K16+K17))-1</f>
+        <f t="shared" ref="O23:Q23" si="13">((O16+O17)/(K16+K17))-1</f>
         <v>0.11128835507178381</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.17709703149589329</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.24728664151483182</v>
       </c>
       <c r="R23" s="3">
@@ -18106,47 +18109,47 @@
       <c r="A24" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="163">
+      <c r="D24" s="131">
         <f>D19/C19-1</f>
         <v>-0.15727915536613712</v>
       </c>
-      <c r="E24" s="163">
+      <c r="E24" s="131">
         <f>E19/D19-1</f>
         <v>0.16746645211344502</v>
       </c>
-      <c r="F24" s="157">
+      <c r="F24" s="130">
         <f>F19/E19-1</f>
         <v>-0.48716434074183468</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" ref="N24:Q24" si="13">N19/J19-1</f>
+        <f t="shared" ref="N24:Q24" si="14">N19/J19-1</f>
         <v>-3.3579725448785624E-2</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.0380567662379092E-2</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.59683666881859265</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.31016757479181667</v>
       </c>
-      <c r="R24" s="157">
+      <c r="R24" s="130">
         <f>R19/N19-1</f>
         <v>-0.53715034965034958</v>
       </c>
-      <c r="S24" s="157">
+      <c r="S24" s="130">
         <f>S19/O19-1</f>
         <v>-0.47935286797149002</v>
       </c>
-      <c r="T24" s="157">
+      <c r="T24" s="130">
         <f>T19/P19-1</f>
         <v>-0.47402466141095612</v>
       </c>
-      <c r="U24" s="157">
+      <c r="U24" s="130">
         <f>U19/Q19-1</f>
         <v>-0.4668863779033271</v>
       </c>
@@ -18246,7 +18249,7 @@
         <v>3849</v>
       </c>
       <c r="M29" s="10">
-        <f t="shared" ref="M29:M33" si="14">D29-L29-K29-J29</f>
+        <f t="shared" ref="M29:M33" si="15">D29-L29-K29-J29</f>
         <v>4452</v>
       </c>
       <c r="N29" s="10">
@@ -18261,7 +18264,7 @@
         <v>5171</v>
       </c>
       <c r="Q29" s="10">
-        <f t="shared" ref="Q29:Q33" si="15">E29-P29-O29-N29</f>
+        <f t="shared" ref="Q29:Q33" si="16">E29-P29-O29-N29</f>
         <v>5521</v>
       </c>
       <c r="R29" s="10">
@@ -18306,7 +18309,7 @@
         <v>23292</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27089</v>
       </c>
       <c r="N30" s="10">
@@ -18321,7 +18324,7 @@
         <v>20511</v>
       </c>
       <c r="Q30" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22808</v>
       </c>
       <c r="R30" s="10">
@@ -18366,7 +18369,7 @@
         <v>22396</v>
       </c>
       <c r="M31" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29804</v>
       </c>
       <c r="N31" s="10">
@@ -18381,7 +18384,7 @@
         <v>23062</v>
       </c>
       <c r="Q31" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23405</v>
       </c>
       <c r="R31" s="10">
@@ -18426,7 +18429,7 @@
         <v>9111</v>
       </c>
       <c r="M32" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9319</v>
       </c>
       <c r="N32" s="10">
@@ -18441,7 +18444,7 @@
         <v>8491</v>
       </c>
       <c r="Q32" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6902</v>
       </c>
       <c r="R32" s="10">
@@ -18486,7 +18489,7 @@
         <v>4271</v>
       </c>
       <c r="M33" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12344</v>
       </c>
       <c r="N33" s="10">
@@ -18501,7 +18504,7 @@
         <v>10195</v>
       </c>
       <c r="Q33" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10852</v>
       </c>
       <c r="R33" s="10">
@@ -18522,19 +18525,19 @@
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:F34" si="16">SUM(C28:C33)</f>
+        <f t="shared" ref="C34:F34" si="17">SUM(C28:C33)</f>
         <v>297289</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>313721</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>333605</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G34" s="11"/>
@@ -18545,43 +18548,43 @@
         <v>65601</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" ref="K34" si="17">SUM(K28:K33)</f>
+        <f t="shared" ref="K34" si="18">SUM(K28:K33)</f>
         <v>82967</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" ref="L34" si="18">SUM(L28:L33)</f>
+        <f t="shared" ref="L34" si="19">SUM(L28:L33)</f>
         <v>72018</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34" si="19">SUM(M28:M33)</f>
+        <f t="shared" ref="M34" si="20">SUM(M28:M33)</f>
         <v>93135</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" ref="N34" si="20">SUM(N28:N33)</f>
+        <f t="shared" ref="N34" si="21">SUM(N28:N33)</f>
         <v>84737</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" ref="O34" si="21">SUM(O28:O33)</f>
+        <f t="shared" ref="O34" si="22">SUM(O28:O33)</f>
         <v>86065</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" ref="P34" si="22">SUM(P28:P33)</f>
+        <f t="shared" ref="P34" si="23">SUM(P28:P33)</f>
         <v>79390</v>
       </c>
       <c r="Q34" s="11">
-        <f t="shared" ref="Q34" si="23">SUM(Q28:Q33)</f>
+        <f t="shared" ref="Q34" si="24">SUM(Q28:Q33)</f>
         <v>83413</v>
       </c>
       <c r="R34" s="11">
-        <f t="shared" ref="R34" si="24">SUM(R28:R33)</f>
+        <f t="shared" ref="R34" si="25">SUM(R28:R33)</f>
         <v>70605</v>
       </c>
       <c r="S34" s="11">
-        <f t="shared" ref="S34:T34" si="25">SUM(S28:S33)</f>
+        <f t="shared" ref="S34:T34" si="26">SUM(S28:S33)</f>
         <v>81087</v>
       </c>
       <c r="T34" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>69612</v>
       </c>
     </row>
@@ -18602,30 +18605,30 @@
         <v>-1</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" ref="N36" si="26">N28/J28-1</f>
+        <f t="shared" ref="N36" si="27">N28/J28-1</f>
         <v>0.31129955046996316</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" ref="O36" si="27">O28/K28-1</f>
+        <f t="shared" ref="O36" si="28">O28/K28-1</f>
         <v>0.28373643278352279</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" ref="P36" si="28">P28/L28-1</f>
+        <f t="shared" ref="P36" si="29">P28/L28-1</f>
         <v>0.31443015716012757</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" ref="Q36" si="29">Q28/M28-1</f>
+        <f t="shared" ref="Q36" si="30">Q28/M28-1</f>
         <v>0.37503702972252384</v>
       </c>
       <c r="R36" s="3">
         <f>R28/N28-1</f>
         <v>6.5446045968056143E-3</v>
       </c>
-      <c r="S36" s="157">
+      <c r="S36" s="130">
         <f>S28/O28-1</f>
         <v>-0.10611810132481192</v>
       </c>
-      <c r="T36" s="157">
+      <c r="T36" s="130">
         <f>T28/P28-1</f>
         <v>-6.1872909698996725E-3</v>
       </c>
@@ -18647,19 +18650,19 @@
         <v>-1</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" ref="N37" si="30">((N30+N31)/(J30+J31))-1</f>
+        <f t="shared" ref="N37" si="31">((N30+N31)/(J30+J31))-1</f>
         <v>0.3381002726615101</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" ref="O37" si="31">((O30+O31)/(K30+K31))-1</f>
+        <f t="shared" ref="O37" si="32">((O30+O31)/(K30+K31))-1</f>
         <v>-6.0298892681708405E-2</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" ref="P37" si="32">((P30+P31)/(L30+L31))-1</f>
+        <f t="shared" ref="P37" si="33">((P30+P31)/(L30+L31))-1</f>
         <v>-4.6292243039747882E-2</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" ref="Q37" si="33">((Q30+Q31)/(M30+M31))-1</f>
+        <f t="shared" ref="Q37" si="34">((Q30+Q31)/(M30+M31))-1</f>
         <v>-0.18772080923839485</v>
       </c>
       <c r="R37" s="3">
@@ -18670,7 +18673,7 @@
         <f>((S30+S31)/(O30+O31))-1</f>
         <v>2.0200677785899401E-2</v>
       </c>
-      <c r="T37" s="157">
+      <c r="T37" s="130">
         <f>((T30+T31)/(P30+P31))-1</f>
         <v>-0.10341266380556768</v>
       </c>
@@ -18679,43 +18682,43 @@
       <c r="A38" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="163">
+      <c r="D38" s="131">
         <f>D33/C33-1</f>
         <v>-0.13087042986079245</v>
       </c>
-      <c r="E38" s="163">
+      <c r="E38" s="131">
         <f>E33/D33-1</f>
         <v>0.17504180234093103</v>
       </c>
-      <c r="F38" s="157">
+      <c r="F38" s="130">
         <f>F33/E33-1</f>
         <v>-1</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" ref="N38" si="34">N33/J33-1</f>
+        <f t="shared" ref="N38" si="35">N33/J33-1</f>
         <v>3.79181258302137E-2</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" ref="O38" si="35">O33/K33-1</f>
+        <f t="shared" ref="O38" si="36">O33/K33-1</f>
         <v>0.13281844881975413</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" ref="P38" si="36">P33/L33-1</f>
+        <f t="shared" ref="P38" si="37">P33/L33-1</f>
         <v>1.3870287988761416</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" ref="Q38" si="37">Q33/M33-1</f>
+        <f t="shared" ref="Q38" si="38">Q33/M33-1</f>
         <v>-0.12086843810758263</v>
       </c>
-      <c r="R38" s="157">
+      <c r="R38" s="130">
         <f>R33/N33-1</f>
         <v>-0.50285049447353114</v>
       </c>
-      <c r="S38" s="157">
+      <c r="S38" s="130">
         <f>S33/O33-1</f>
         <v>-0.5286153255233339</v>
       </c>
-      <c r="T38" s="157">
+      <c r="T38" s="130">
         <f>T33/P33-1</f>
         <v>-0.38930848455125067</v>
       </c>
@@ -27426,14 +27429,14 @@
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="140"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -27936,10 +27939,10 @@
         <f t="shared" si="0"/>
         <v>-1.5645333076088619E-2</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="142"/>
+      <c r="I17" s="145"/>
       <c r="M17" s="83"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -27953,8 +27956,8 @@
         <f t="shared" si="0"/>
         <v>-4.0050124153939382E-2</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="144"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
       <c r="M18" s="83"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -28527,14 +28530,14 @@
         <f t="shared" si="0"/>
         <v>3.9420018838604687E-2</v>
       </c>
-      <c r="H43" s="145" t="s">
+      <c r="H43" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="147"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">

--- a/Automotive/P911.xlsx
+++ b/Automotive/P911.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Automotive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BD62B-05AB-4DEB-A9B5-35D7D3B346FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2154C5-EF12-495F-AFAA-B24D7F81F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1035" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,8 +13486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16918,11 +16918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18725,6 +18725,90 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J14:U14">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:U19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:U15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:U16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:U17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:U18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:U19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
